--- a/s2cDNASample/s2CDNASample_hbrown_10.29.19.xlsx
+++ b/s2cDNASample/s2CDNASample_hbrown_10.29.19.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">H.BROWN</t>
   </si>
   <si>
-    <t xml:space="preserve">E7760</t>
+    <t xml:space="preserve">E7420</t>
   </si>
 </sst>
 </file>
@@ -63,7 +63,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -104,6 +104,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -149,7 +156,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -168,6 +175,10 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -194,7 +205,7 @@
   <dimension ref="A1:AC41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H41"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -268,10 +279,11 @@
       <c r="F2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="5" t="b">
+      <c r="G2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I2" s="2"/>
@@ -315,10 +327,11 @@
       <c r="F3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="5" t="b">
+      <c r="G3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -341,10 +354,11 @@
       <c r="F4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="5" t="b">
+      <c r="G4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -367,10 +381,11 @@
       <c r="F5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="5" t="b">
+      <c r="G5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -393,10 +408,11 @@
       <c r="F6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="5" t="b">
+      <c r="G6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -419,10 +435,11 @@
       <c r="F7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="5" t="b">
+      <c r="G7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -445,10 +462,11 @@
       <c r="F8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="5" t="b">
+      <c r="G8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -471,10 +489,11 @@
       <c r="F9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="G9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="5" t="b">
+      <c r="G9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -497,10 +516,11 @@
       <c r="F10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="5" t="b">
+      <c r="G10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -523,10 +543,11 @@
       <c r="F11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="G11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="5" t="b">
+      <c r="G11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -549,10 +570,11 @@
       <c r="F12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="G12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="5" t="b">
+      <c r="G12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -575,10 +597,11 @@
       <c r="F13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="G13" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="5" t="b">
+      <c r="G13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -601,10 +624,11 @@
       <c r="F14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="G14" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="5" t="b">
+      <c r="G14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -627,10 +651,11 @@
       <c r="F15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="G15" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="5" t="b">
+      <c r="G15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -653,10 +678,11 @@
       <c r="F16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="G16" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="5" t="b">
+      <c r="G16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -679,10 +705,11 @@
       <c r="F17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="G17" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="5" t="b">
+      <c r="G17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -705,10 +732,11 @@
       <c r="F18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="G18" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="5" t="b">
+      <c r="G18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -731,10 +759,11 @@
       <c r="F19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="G19" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="5" t="b">
+      <c r="G19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -757,10 +786,11 @@
       <c r="F20" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="G20" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="5" t="b">
+      <c r="G20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -783,10 +813,11 @@
       <c r="F21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="G21" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="5" t="b">
+      <c r="G21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -809,10 +840,11 @@
       <c r="F22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="G22" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="5" t="b">
+      <c r="G22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -835,10 +867,11 @@
       <c r="F23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="G23" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="5" t="b">
+      <c r="G23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -861,10 +894,11 @@
       <c r="F24" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="G24" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="5" t="b">
+      <c r="G24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -887,10 +921,11 @@
       <c r="F25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="G25" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="5" t="b">
+      <c r="G25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -913,10 +948,11 @@
       <c r="F26" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="G26" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="5" t="b">
+      <c r="G26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -939,10 +975,11 @@
       <c r="F27" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="G27" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" s="5" t="b">
+      <c r="G27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -965,10 +1002,11 @@
       <c r="F28" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="G28" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="5" t="b">
+      <c r="G28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -991,10 +1029,11 @@
       <c r="F29" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="G29" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="5" t="b">
+      <c r="G29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1017,10 +1056,11 @@
       <c r="F30" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="G30" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H30" s="5" t="b">
+      <c r="G30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1043,10 +1083,11 @@
       <c r="F31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="G31" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="5" t="b">
+      <c r="G31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1069,10 +1110,11 @@
       <c r="F32" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="G32" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="5" t="b">
+      <c r="G32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1095,10 +1137,11 @@
       <c r="F33" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="G33" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H33" s="5" t="b">
+      <c r="G33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1121,10 +1164,11 @@
       <c r="F34" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="G34" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H34" s="5" t="b">
+      <c r="G34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1147,10 +1191,11 @@
       <c r="F35" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="G35" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" s="5" t="b">
+      <c r="G35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1173,10 +1218,11 @@
       <c r="F36" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="G36" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36" s="5" t="b">
+      <c r="G36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1199,10 +1245,11 @@
       <c r="F37" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="G37" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H37" s="5" t="b">
+      <c r="G37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1225,10 +1272,11 @@
       <c r="F38" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="G38" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H38" s="5" t="b">
+      <c r="G38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1251,10 +1299,11 @@
       <c r="F39" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="G39" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H39" s="5" t="b">
+      <c r="G39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1277,10 +1326,11 @@
       <c r="F40" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="G40" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H40" s="5" t="b">
+      <c r="G40" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1303,10 +1353,11 @@
       <c r="F41" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="G41" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H41" s="5" t="b">
+      <c r="G41" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>

--- a/s2cDNASample/s2CDNASample_hbrown_10.29.19.xlsx
+++ b/s2cDNASample/s2CDNASample_hbrown_10.29.19.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">H.BROWN</t>
   </si>
   <si>
-    <t xml:space="preserve">E7420</t>
+    <t xml:space="preserve">E7420L</t>
   </si>
 </sst>
 </file>
@@ -282,8 +282,7 @@
       <c r="G2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H2" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I2" s="2"/>
@@ -330,8 +329,7 @@
       <c r="G3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H3" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -357,8 +355,7 @@
       <c r="G4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H4" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -384,8 +381,7 @@
       <c r="G5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H5" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -411,8 +407,7 @@
       <c r="G6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H6" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -438,8 +433,7 @@
       <c r="G7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H7" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -465,8 +459,7 @@
       <c r="G8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H8" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -492,8 +485,7 @@
       <c r="G9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H9" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -519,8 +511,7 @@
       <c r="G10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H10" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -546,8 +537,7 @@
       <c r="G11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H11" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -573,8 +563,7 @@
       <c r="G12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H12" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -600,8 +589,7 @@
       <c r="G13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H13" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -627,8 +615,7 @@
       <c r="G14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H14" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -654,8 +641,7 @@
       <c r="G15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H15" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -681,8 +667,7 @@
       <c r="G16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H16" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -708,8 +693,7 @@
       <c r="G17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H17" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -735,8 +719,7 @@
       <c r="G18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H18" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -762,8 +745,7 @@
       <c r="G19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H19" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -789,8 +771,7 @@
       <c r="G20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H20" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H20" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -816,8 +797,7 @@
       <c r="G21" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H21" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -843,8 +823,7 @@
       <c r="G22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H22" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -870,8 +849,7 @@
       <c r="G23" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H23" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H23" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -897,8 +875,7 @@
       <c r="G24" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H24" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H24" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -924,8 +901,7 @@
       <c r="G25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H25" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -951,8 +927,7 @@
       <c r="G26" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H26" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H26" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -978,8 +953,7 @@
       <c r="G27" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H27" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H27" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1005,8 +979,7 @@
       <c r="G28" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H28" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H28" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1032,8 +1005,7 @@
       <c r="G29" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H29" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1059,8 +1031,7 @@
       <c r="G30" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H30" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H30" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1086,8 +1057,7 @@
       <c r="G31" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H31" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H31" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1113,8 +1083,7 @@
       <c r="G32" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H32" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H32" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1140,8 +1109,7 @@
       <c r="G33" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H33" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1167,8 +1135,7 @@
       <c r="G34" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H34" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H34" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1194,8 +1161,7 @@
       <c r="G35" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H35" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H35" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1221,8 +1187,7 @@
       <c r="G36" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H36" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H36" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1248,8 +1213,7 @@
       <c r="G37" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H37" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H37" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1275,8 +1239,7 @@
       <c r="G38" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H38" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1302,8 +1265,7 @@
       <c r="G39" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H39" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H39" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1329,8 +1291,7 @@
       <c r="G40" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H40" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H40" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1356,8 +1317,7 @@
       <c r="G41" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H41" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H41" s="6" t="b">
         <v>0</v>
       </c>
     </row>

--- a/s2cDNASample/s2CDNASample_hbrown_10.29.19.xlsx
+++ b/s2cDNASample/s2CDNASample_hbrown_10.29.19.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/s2cDNASample/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4F4E3E-6D9E-7F47-9D19-5D4DC4EED5A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="14860" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,71 +25,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="12">
   <si>
-    <t xml:space="preserve">s1cDNADate</t>
+    <t>s1cDNADate</t>
   </si>
   <si>
-    <t xml:space="preserve">s1cDNAPreparer</t>
+    <t>s1cDNAPreparer</t>
   </si>
   <si>
-    <t xml:space="preserve">s1cDNASampleNumber</t>
+    <t>s1cDNASampleNumber</t>
   </si>
   <si>
-    <t xml:space="preserve">s2cDNADate</t>
+    <t>s2cDNADate</t>
   </si>
   <si>
-    <t xml:space="preserve">s2cDNAPreparer</t>
+    <t>s2cDNAPreparer</t>
   </si>
   <si>
-    <t xml:space="preserve">s2cDNASampleNumber</t>
+    <t>s2cDNASampleNumber</t>
   </si>
   <si>
-    <t xml:space="preserve">s2cDNAProtocol</t>
+    <t>s2cDNAProtocol</t>
   </si>
   <si>
-    <t xml:space="preserve">roboticS2Prep</t>
+    <t>roboticS2Prep</t>
   </si>
   <si>
-    <t xml:space="preserve">10.29.19</t>
+    <t>10.29.19</t>
   </si>
   <si>
-    <t xml:space="preserve">H.BROWN</t>
+    <t>H.BROWN</t>
   </si>
   <si>
-    <t xml:space="preserve">E7420L</t>
+    <t>E7420L</t>
+  </si>
+  <si>
+    <t>False</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -110,8 +99,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,7 +111,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -131,89 +119,345 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AC41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AC43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G41"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42:H43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.61"/>
+    <col min="1" max="1025" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -260,14 +504,14 @@
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="4">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -276,14 +520,14 @@
       <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="4">
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="6" t="b">
-        <v>0</v>
+      <c r="H2" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -307,1027 +551,1028 @@
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="H3" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>3</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="H4" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>4</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="H5" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>5</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="H6" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>6</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="H7" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>7</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8">
         <v>7</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="H8" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="D9" s="0" t="s">
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>8</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="H9" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="D10" s="0" t="s">
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10">
         <v>9</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="H10" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D11" s="0" t="s">
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11">
         <v>10</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="H11" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="D12" s="0" t="s">
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12">
         <v>11</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="H12" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>12</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13">
         <v>12</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="H13" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14">
         <v>13</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14">
         <v>13</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="H14" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>14</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15">
         <v>14</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="H15" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16">
         <v>15</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16">
         <v>15</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="H16" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>16</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17">
         <v>16</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="H17" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>17</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18">
         <v>17</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="H18" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19">
         <v>18</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19">
         <v>18</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="H19" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20">
         <v>19</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20">
         <v>19</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H20" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="H20" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21">
         <v>20</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21">
         <v>20</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="H21" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22">
         <v>21</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>8</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22">
         <v>21</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="H22" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23">
         <v>22</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" t="s">
         <v>8</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23">
         <v>22</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H23" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="H23" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24">
         <v>23</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>8</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24">
         <v>23</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H24" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="H24" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>8</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25">
         <v>24</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25">
         <v>24</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="H25" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>8</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26">
         <v>25</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26">
         <v>25</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H26" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="H26" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>8</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27">
         <v>26</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27">
         <v>26</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H27" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="H27" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28">
         <v>27</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" t="s">
         <v>8</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28">
         <v>27</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H28" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="H28" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>8</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29">
         <v>28</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" t="s">
         <v>8</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29">
         <v>28</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="H29" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>8</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30">
         <v>29</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" t="s">
         <v>8</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30">
         <v>29</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H30" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="H30" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>8</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31">
         <v>30</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" t="s">
         <v>8</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31">
         <v>30</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H31" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="H31" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>8</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32">
         <v>31</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="0" t="n">
+      <c r="F32">
         <v>31</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H32" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="H32" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>8</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33">
         <v>32</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="F33">
         <v>32</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="H33" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>8</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34">
         <v>33</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="F34">
         <v>33</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H34" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="H34" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>8</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35">
         <v>34</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" t="s">
         <v>8</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="0" t="n">
+      <c r="F35">
         <v>34</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H35" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="H35" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>8</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36">
         <v>35</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" t="s">
         <v>8</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="F36">
         <v>35</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H36" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="H36" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>8</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37">
         <v>36</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" t="s">
         <v>8</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="0" t="n">
+      <c r="F37">
         <v>36</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H37" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="H37" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>8</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38">
         <v>37</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" t="s">
         <v>8</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="0" t="n">
+      <c r="F38">
         <v>37</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="H38" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>8</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39">
         <v>38</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" t="s">
         <v>8</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="0" t="n">
+      <c r="F39">
         <v>38</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H39" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="H39" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>8</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40">
         <v>39</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" t="s">
         <v>8</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="0" t="n">
+      <c r="F40">
         <v>39</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H40" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="H40" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>8</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41">
         <v>40</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" t="s">
         <v>8</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="0" t="n">
+      <c r="F41">
         <v>40</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H41" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="H41" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H43" s="6"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>